--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\532725 backup 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\532725.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1866,12 +1866,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1892,14 +1898,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2183,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T268" sqref="T268"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2199,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B1" t="s">
@@ -2202,10 +2208,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -2223,34 +2229,34 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>581</v>
       </c>
       <c r="S1" t="s">
         <v>573</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>582</v>
       </c>
     </row>
@@ -8602,7 +8608,7 @@
         <f t="shared" si="20"/>
         <v>貝殼放大股份有限公司</v>
       </c>
-      <c r="P87" s="3" t="s">
+      <c r="P87" s="2" t="s">
         <v>567</v>
       </c>
       <c r="Q87" t="str">
@@ -22588,7 +22594,7 @@
         <f t="shared" si="56"/>
         <v>國立中央大學創新育成中心</v>
       </c>
-      <c r="P276" s="3" t="s">
+      <c r="P276" s="2" t="s">
         <v>583</v>
       </c>
       <c r="Q276" t="str">
